--- a/data/EsquemaBDSuperAndesChanges.xlsx
+++ b/data/EsquemaBDSuperAndesChanges.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\ja.amortegui10\Documents\sistransDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonatan\superandes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9875FE67-C9D8-4806-BFF3-F1C0056A5B5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="3930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="3930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="126">
-  <si>
-    <t>User</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -199,9 +193,6 @@
     <t>idProductoOfrecido2</t>
   </si>
   <si>
-    <t>idUsser</t>
-  </si>
-  <si>
     <t>costo</t>
   </si>
   <si>
@@ -241,15 +232,6 @@
     <t>Promocion</t>
   </si>
   <si>
-    <t>PromocionPorCantidadOUnidad</t>
-  </si>
-  <si>
-    <t>PromocionPaqueteProductos</t>
-  </si>
-  <si>
-    <t>PromocionPorcentajeDescuento</t>
-  </si>
-  <si>
     <t>ItemFactura</t>
   </si>
   <si>
@@ -310,33 +292,21 @@
     <t>varchar(40)</t>
   </si>
   <si>
-    <t>IN(estante,bodega)</t>
-  </si>
-  <si>
     <t>varchar(15)</t>
   </si>
   <si>
     <t>IN(1,2,3,4,5)</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>IN(pague_n_lleve_m,pague_x_lleve_y, porcentaje_descuento,paquete_productos)</t>
   </si>
   <si>
     <t>fecha</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>varchar(7)</t>
   </si>
   <si>
-    <t>Add2</t>
-  </si>
-  <si>
     <t>idFisico</t>
   </si>
   <si>
@@ -376,30 +346,12 @@
     <t>Paste2.</t>
   </si>
   <si>
-    <t>Copy2.</t>
-  </si>
-  <si>
-    <t>Change3.</t>
-  </si>
-  <si>
-    <t>idTipo</t>
-  </si>
-  <si>
     <t>FK, NN</t>
   </si>
   <si>
-    <t>Change4.</t>
-  </si>
-  <si>
     <t>Copy3.</t>
   </si>
   <si>
-    <t>Change3, Paste3.</t>
-  </si>
-  <si>
-    <t>Change4, Paste3.</t>
-  </si>
-  <si>
     <t>Ofrecido</t>
   </si>
   <si>
@@ -407,12 +359,129 @@
   </si>
   <si>
     <t>Change5.</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Add3.</t>
+  </si>
+  <si>
+    <t>Change6.</t>
+  </si>
+  <si>
+    <t>tipoOfrecido</t>
+  </si>
+  <si>
+    <t>NN, CK in ('sucursal', 'proveedor')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>fecha_inicio</t>
+  </si>
+  <si>
+    <t>fecha_fin</t>
+  </si>
+  <si>
+    <t>PromPorCantidadOUnidad</t>
+  </si>
+  <si>
+    <t>PromPaqueteProductos</t>
+  </si>
+  <si>
+    <t>PromPorcentajeDescuento</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>Paste3.</t>
+  </si>
+  <si>
+    <t>In('estante', 'bodega')</t>
+  </si>
+  <si>
+    <t>delete4.</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>documento</t>
+  </si>
+  <si>
+    <t>In ('persona', 'empresa')</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Add5.</t>
+  </si>
+  <si>
+    <t>idCliente</t>
+  </si>
+  <si>
+    <t>AddR4.</t>
+  </si>
+  <si>
+    <t>Add4.</t>
+  </si>
+  <si>
+    <t>Add6.</t>
+  </si>
+  <si>
+    <t>delete2.</t>
+  </si>
+  <si>
+    <t>delete3..</t>
+  </si>
+  <si>
+    <t>delete1.</t>
+  </si>
+  <si>
+    <t>copy3.</t>
+  </si>
+  <si>
+    <t>deleteR1.</t>
+  </si>
+  <si>
+    <t>deleteR2.</t>
+  </si>
+  <si>
+    <t>deleteR3.</t>
+  </si>
+  <si>
+    <t>delete5.</t>
+  </si>
+  <si>
+    <t>nitProveedor</t>
+  </si>
+  <si>
+    <t>Add2.</t>
+  </si>
+  <si>
+    <t>paste2.</t>
+  </si>
+  <si>
+    <t>copy2.</t>
+  </si>
+  <si>
+    <t>Copy4.</t>
+  </si>
+  <si>
+    <t>Paste4.</t>
+  </si>
+  <si>
+    <t>delete6.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +557,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,7 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,29 +676,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,6 +694,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,11 +1051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,345 +1070,311 @@
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="1"/>
+      <c r="K1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1"/>
+      <c r="K2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>86</v>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="H3" s="19"/>
+      <c r="K3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="K4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="O4" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="9"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="13"/>
+      <c r="K5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="K7" s="21"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="23"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>81</v>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="P9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1308,195 +1382,190 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="M11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="I12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="M13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1504,314 +1573,318 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="1"/>
+      <c r="J17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="1"/>
-      <c r="J17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="1"/>
-      <c r="R17" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="S17" s="20"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="15" t="s">
+      <c r="N18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="S18" s="19"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="S19" s="18" t="s">
+      <c r="D20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="S20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>4</v>
+      <c r="R22" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="S22" s="14"/>
+      <c r="T22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E23" s="1"/>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="L23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="L23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>83</v>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="J24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="O24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1819,43 +1892,43 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>49</v>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E25" s="1"/>
       <c r="G25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1863,70 +1936,76 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="G26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>18</v>
+      <c r="G26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>87</v>
+      <c r="L26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="I27" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="N27" s="23" t="s">
-        <v>125</v>
+      <c r="H27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="6"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1941,270 +2020,274 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>117</v>
+        <v>30</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
       <c r="O30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>118</v>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="J31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="K31" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="J32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>83</v>
+      <c r="K32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="A33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="21" t="s">
-        <v>49</v>
+      <c r="K33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="L34" s="23" t="s">
-        <v>125</v>
+      <c r="I34" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="1"/>
+      <c r="A36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2213,24 +2296,19 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2239,10 +2317,6 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2251,13 +2325,13 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2267,9 +2341,6 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2277,14 +2348,14 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>49</v>
+      <c r="A41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2294,10 +2365,6 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2316,10 +2383,6 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2327,179 +2390,203 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="A43" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="1"/>
-      <c r="G43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="I43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="P43" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="Q44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+      <c r="A46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1" t="s">
-        <v>104</v>
+      <c r="J47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -2508,18 +2595,6 @@
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -2534,28 +2609,18 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A49" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F49" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="O49" s="1"/>
@@ -2566,84 +2631,103 @@
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>83</v>
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>83</v>
+      <c r="F50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="K50" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>18</v>
+      <c r="A51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>18</v>
+      <c r="F51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
+      <c r="K51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="F52" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
+      <c r="K52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -2656,81 +2740,70 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+      <c r="K53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="13"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="L54" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>7</v>
+      <c r="E55" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2744,25 +2817,19 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>18</v>
+      <c r="A57" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2816,8 +2883,8 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
-        <v>79</v>
+      <c r="C60" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2881,14 +2948,6 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -2903,56 +2962,24 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -3019,36 +3046,116 @@
       <c r="AC95" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O10:R10"/>
+  <mergeCells count="32">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P10:U10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="L23:O23"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J29:L29"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P43:S43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504ACCAD-D6F4-446D-BF11-A0281F78C9B9}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>